--- a/ConvertedEqual/Arizona_Converted.xlsx
+++ b/ConvertedEqual/Arizona_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="274">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -801,6 +801,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1527,7 +1563,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="Y7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2764,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2841,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2918,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2995,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3072,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3149,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3226,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3303,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3380,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3457,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3534,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3611,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3688,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3765,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3842,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3919,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>0.6666666666615385</v>
+        <v>0.6388888888833333</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3996,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>0.6666666666615385</v>
+        <v>0.6388888888833333</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4073,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>0.6666666666615385</v>
+        <v>0.6388888888833333</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4150,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>0.6666666666615385</v>
+        <v>0.6388888888833333</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4227,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -4304,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4381,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4458,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4535,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4612,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4689,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4766,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4843,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4920,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4997,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5074,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5151,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5228,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5305,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -5382,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -5459,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5536,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5613,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5690,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5767,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5844,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5921,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5998,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6075,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6152,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6229,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="Y69">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6306,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6383,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6460,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="Y72">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6537,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6614,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6691,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6768,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6845,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="Y77">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6922,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="Y78">
-        <v>0.6923076923000001</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6999,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="Y79">
-        <v>0.6923076923000001</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -7076,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="Y80">
-        <v>0.6923076923000001</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7153,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="Y81">
-        <v>0.6538461538384617</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -7230,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="Y82">
-        <v>0.6538461538384617</v>
+        <v>0.6249999999916667</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7307,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -7384,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -7461,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7538,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7615,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7692,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7769,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7846,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7923,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -8000,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -8077,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="Y93">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -8154,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -8231,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -8308,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -8385,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -8462,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Y98">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8539,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="Y99">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8616,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8693,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8770,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="Y102">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -8847,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -8924,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -9001,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -9078,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -9155,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="Y107">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -9232,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -9309,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="Y109">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -9386,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -9463,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -9540,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="Y112">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -9617,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="Y113">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -9694,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9771,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -9848,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -9925,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -10002,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -10079,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -10156,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="Y120">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -10233,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -10310,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -10387,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="Y123">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -10464,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="Y124">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -10541,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="Y125">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -10618,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Y126">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -10695,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -10772,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="Y128">
-        <v>0.2692307692307692</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:25">
@@ -10849,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="130" spans="1:25">
@@ -10926,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="Y130">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -11003,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="Y131">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -11080,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="Y132">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -11157,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -11234,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="Y134">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -11311,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="136" spans="1:25">
@@ -11388,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="Y136">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -11465,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="Y137">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -11542,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="Y138">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -11619,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="Y139">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -11696,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="Y140">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -11773,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="Y141">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -11850,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Y142">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -11927,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="Y143">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -12004,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -12081,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="Y145">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -12158,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="Y146">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -12235,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="Y147">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="148" spans="1:25">
@@ -12312,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="Y148">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="149" spans="1:25">
@@ -12389,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="Y149">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -12466,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="Y150">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="151" spans="1:25">
@@ -12543,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="Y151">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="152" spans="1:25">
@@ -12620,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="153" spans="1:25">
@@ -12697,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Y153">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="154" spans="1:25">
@@ -12774,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="Y154">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="155" spans="1:25">
@@ -12851,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="Y155">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="156" spans="1:25">
@@ -12928,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="Y156">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="157" spans="1:25">
@@ -13005,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Y157">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -13082,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="Y158">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -13159,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="Y159">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="160" spans="1:25">
@@ -13236,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="Y160">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="161" spans="1:25">
@@ -13313,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Y161">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="162" spans="1:25">
@@ -13390,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="Y162">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="163" spans="1:25">
@@ -13467,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="Y163">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="164" spans="1:25">
@@ -13544,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="Y164">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="165" spans="1:25">
@@ -13621,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="Y165">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="166" spans="1:25">
@@ -13698,7 +13734,7 @@
         <v>0</v>
       </c>
       <c r="Y166">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -13775,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="Y167">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="168" spans="1:25">
@@ -13852,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="Y168">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="169" spans="1:25">
@@ -13929,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="Y169">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -14006,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="Y170">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -14083,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="Y171">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -14160,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="Y172">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="173" spans="1:25">
@@ -14237,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="Y173">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -14314,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="Y174">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14391,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="Y175">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14468,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="Y176">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14545,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="Y177">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -14622,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="Y178">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -14699,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="Y179">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="180" spans="1:25">
@@ -14776,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="Y180">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -14853,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="Y181">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="182" spans="1:25">
@@ -14930,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="Y182">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="183" spans="1:25">
@@ -15007,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="Y183">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="184" spans="1:25">
@@ -15084,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="Y184">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="185" spans="1:25">
@@ -15161,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="Y185">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="186" spans="1:25">
@@ -15238,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="Y186">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -15315,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="Y187">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="188" spans="1:25">
@@ -15392,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Y188">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="189" spans="1:25">
@@ -15469,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="Y189">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="190" spans="1:25">
@@ -15546,7 +15582,7 @@
         <v>0</v>
       </c>
       <c r="Y190">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="191" spans="1:25">
@@ -15623,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="Y191">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="192" spans="1:25">
@@ -15700,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="Y192">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="193" spans="1:25">
@@ -15777,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="Y193">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="194" spans="1:25">
@@ -15854,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="Y194">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="195" spans="1:25">
@@ -15931,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="Y195">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="196" spans="1:25">
@@ -16008,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="Y196">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="197" spans="1:25">
@@ -16085,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="Y197">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="198" spans="1:25">
@@ -16162,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="Y198">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="199" spans="1:25">
@@ -16239,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="Y199">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="200" spans="1:25">
@@ -16316,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="Y200">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="201" spans="1:25">
@@ -16393,7 +16429,7 @@
         <v>0</v>
       </c>
       <c r="Y201">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="202" spans="1:25">
@@ -16470,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="Y202">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="203" spans="1:25">
@@ -16547,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="Y203">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="204" spans="1:25">
@@ -16624,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="Y204">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="205" spans="1:25">
@@ -16701,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="Y205">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="206" spans="1:25">
@@ -16778,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="Y206">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="207" spans="1:25">
@@ -16855,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="Y207">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="208" spans="1:25">
@@ -16932,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="Y208">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="209" spans="1:25">
@@ -17009,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="Y209">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="210" spans="1:25">
@@ -17086,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="Y210">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="211" spans="1:25">
@@ -17163,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="Y211">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="212" spans="1:25">
@@ -17240,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="Y212">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="213" spans="1:25">
@@ -17317,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="Y213">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="214" spans="1:25">
@@ -17394,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="Y214">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="215" spans="1:25">
@@ -17471,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="Y215">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="216" spans="1:25">
@@ -17548,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="Y216">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="217" spans="1:25">
@@ -17625,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="Y217">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="218" spans="1:25">
@@ -17702,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="Y218">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="219" spans="1:25">
@@ -17779,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="Y219">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="220" spans="1:25">
@@ -17856,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="Y220">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="221" spans="1:25">
@@ -17933,7 +17969,931 @@
         <v>0</v>
       </c>
       <c r="Y221">
-        <v>0.3717948717923077</v>
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>1</v>
+      </c>
+      <c r="Q222">
+        <v>1</v>
+      </c>
+      <c r="R222">
+        <v>1</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>1</v>
+      </c>
+      <c r="V222">
+        <v>1</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25">
+      <c r="A223" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>1</v>
+      </c>
+      <c r="Q223">
+        <v>1</v>
+      </c>
+      <c r="R223">
+        <v>1</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>1</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>1</v>
+      </c>
+      <c r="Q224">
+        <v>1</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>1</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25">
+      <c r="A225" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>1</v>
+      </c>
+      <c r="Q225">
+        <v>1</v>
+      </c>
+      <c r="R225">
+        <v>1</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>1</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25">
+      <c r="A226" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>1</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25">
+      <c r="A227" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>1</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25">
+      <c r="A228" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>1</v>
+      </c>
+      <c r="Q228">
+        <v>1</v>
+      </c>
+      <c r="R228">
+        <v>1</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>1</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25">
+      <c r="A229" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>1</v>
+      </c>
+      <c r="Q229">
+        <v>1</v>
+      </c>
+      <c r="R229">
+        <v>1</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>1</v>
+      </c>
+      <c r="V229">
+        <v>1</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25">
+      <c r="A230" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>1</v>
+      </c>
+      <c r="Q230">
+        <v>1</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>1</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25">
+      <c r="A231" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>1</v>
+      </c>
+      <c r="R231">
+        <v>1</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>1</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25">
+      <c r="A232" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>1</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>1</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25">
+      <c r="A233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>1</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>1</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>1</v>
+      </c>
+      <c r="V233">
+        <v>1</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0.3194444444416667</v>
       </c>
     </row>
   </sheetData>
